--- a/Algemeen/Presentie GL-G5.xlsx
+++ b/Algemeen/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
   <si>
     <t>Maandag</t>
   </si>
@@ -161,7 +161,10 @@
     <t>Week 4:</t>
   </si>
   <si>
-    <t>Rief was Ziek</t>
+    <t>Paige was ziek</t>
+  </si>
+  <si>
+    <t>Rief was ziek</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,15 +1136,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.44444444444444442</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1151,7 +1154,9 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="65">
+        <v>4</v>
+      </c>
       <c r="C3" s="83">
         <v>0</v>
       </c>
@@ -1174,12 +1179,12 @@
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
@@ -1193,7 +1198,9 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="65">
+        <v>6</v>
+      </c>
       <c r="C4" s="83">
         <v>0</v>
       </c>
@@ -1219,7 +1226,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
@@ -1233,7 +1240,9 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="65">
+        <v>0</v>
+      </c>
       <c r="C5" s="83">
         <v>0</v>
       </c>
@@ -1259,11 +1268,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1273,7 +1282,9 @@
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="65">
+        <v>4</v>
+      </c>
       <c r="C6" s="35">
         <v>4</v>
       </c>
@@ -1299,7 +1310,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
@@ -1313,7 +1324,9 @@
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="88">
+        <v>4</v>
+      </c>
       <c r="C7" s="83">
         <v>4</v>
       </c>
@@ -1339,7 +1352,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
@@ -1388,7 +1401,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
@@ -1427,21 +1440,37 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>6.4444444444444446</v>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="36"/>
+      <c r="B11" s="65">
+        <v>4</v>
+      </c>
+      <c r="C11" s="83">
+        <v>4</v>
+      </c>
+      <c r="D11" s="83">
+        <v>4</v>
+      </c>
+      <c r="E11" s="83">
+        <v>4</v>
+      </c>
+      <c r="F11" s="83">
+        <v>4</v>
+      </c>
+      <c r="G11" s="83">
+        <v>4</v>
+      </c>
+      <c r="H11" s="83">
+        <v>4</v>
+      </c>
+      <c r="I11" s="36">
+        <v>4</v>
+      </c>
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
@@ -1449,15 +1478,33 @@
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="63"/>
+      <c r="B12" s="65">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34">
+        <v>6</v>
+      </c>
+      <c r="D12" s="35">
+        <v>6</v>
+      </c>
+      <c r="E12" s="35">
+        <v>6</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>6</v>
+      </c>
+      <c r="H12" s="35">
+        <v>6</v>
+      </c>
+      <c r="I12" s="36">
+        <v>6</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>45</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="86" t="s">
         <v>13</v>
@@ -1468,14 +1515,30 @@
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="B13" s="65">
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
       <c r="J13" s="63"/>
       <c r="K13" s="10"/>
       <c r="L13" s="89" t="s">
@@ -1487,7 +1550,9 @@
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="65">
+        <v>4</v>
+      </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -1506,7 +1571,9 @@
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="65">
+        <v>4</v>
+      </c>
       <c r="C15" s="82"/>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
@@ -1526,35 +1593,35 @@
         <v>5</v>
       </c>
       <c r="B16" s="32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="77">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="77">
         <f>SUM(H11:H15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="77">
         <f>SUM(I11:I15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="64"/>
       <c r="K16" s="10"/>

--- a/Algemeen/Presentie GL-G5.xlsx
+++ b/Algemeen/Presentie GL-G5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Important and Stuff V1\School\Year 2\Project-Ninja-Outbreak\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1068,22 +1068,22 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="84" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1136,21 +1136,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.6428571428571429</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1184,17 +1184,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1226,17 +1226,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>1</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1268,17 +1268,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.7857142857142857</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1310,17 +1310,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>1</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1352,17 +1352,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>1</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1401,17 +1401,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>1</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -1421,7 +1421,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1440,10 +1440,10 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>6.4285714285714288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.4736842105263159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
@@ -1546,20 +1546,34 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="65">
         <v>4</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="C14" s="34">
+        <v>4</v>
+      </c>
+      <c r="D14" s="35">
+        <v>4</v>
+      </c>
+      <c r="E14" s="35">
+        <v>4</v>
+      </c>
+      <c r="F14" s="35">
+        <v>4</v>
+      </c>
+      <c r="G14" s="35">
+        <v>4</v>
+      </c>
+      <c r="H14" s="35">
+        <v>4</v>
+      </c>
+      <c r="I14" s="36">
+        <v>4</v>
+      </c>
       <c r="J14" s="63"/>
       <c r="K14" s="10"/>
       <c r="L14" s="90" t="s">
@@ -1567,7 +1581,7 @@
       </c>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
@@ -1588,40 +1602,40 @@
       </c>
       <c r="M15" s="95"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="77">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="77">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16" s="77">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" s="77">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="77">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16" s="77">
         <f>SUM(H11:H15)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I16" s="77">
         <f>SUM(I11:I15)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J16" s="64"/>
       <c r="K16" s="10"/>
@@ -1630,7 +1644,7 @@
       </c>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -1641,7 +1655,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1670,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1685,7 @@
       <c r="J19" s="63"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1700,7 @@
       <c r="J20" s="63"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1715,7 @@
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1730,7 @@
       <c r="J22" s="63"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1745,7 @@
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1769,7 +1783,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -1778,7 +1792,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1807,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1822,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1837,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1852,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1867,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1882,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1920,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -1915,7 +1929,7 @@
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -1930,7 +1944,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1959,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -1960,7 +1974,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1989,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +2004,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2019,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2042,10 +2056,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2074,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2089,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2104,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2119,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2134,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2149,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +2186,7 @@
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
@@ -2182,7 +2196,7 @@
       <c r="I49" s="79"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2211,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2226,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2227,7 +2241,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2256,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +2271,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2272,7 +2286,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2309,7 +2323,7 @@
       </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -2319,7 +2333,7 @@
       <c r="I57" s="79"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -2334,7 +2348,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2363,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
@@ -2364,7 +2378,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -2379,7 +2393,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2408,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
@@ -2409,7 +2423,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2460,7 @@
       </c>
       <c r="J64" s="31"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
@@ -2458,7 +2472,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2473,7 +2487,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2502,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2503,7 +2517,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2532,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -2548,7 +2562,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2599,7 @@
       </c>
       <c r="J72" s="31"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
@@ -2595,7 +2609,7 @@
       <c r="I73" s="79"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -2610,7 +2624,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2639,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2654,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -2655,7 +2669,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2684,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2699,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
@@ -2722,7 +2736,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -2732,7 +2746,7 @@
       <c r="I81" s="79"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -2747,7 +2761,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2776,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -2777,7 +2791,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2806,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
@@ -2807,7 +2821,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2836,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2873,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
@@ -2869,7 +2883,7 @@
       <c r="I89" s="79"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -2884,7 +2898,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2913,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
@@ -2914,7 +2928,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -2929,7 +2943,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +2958,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2973,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>5</v>
       </c>
@@ -2996,7 +3010,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
@@ -3006,7 +3020,7 @@
       <c r="I97" s="79"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>37</v>
       </c>
@@ -3021,7 +3035,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3050,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
@@ -3051,7 +3065,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -3066,7 +3080,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3081,7 +3095,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3096,7 +3110,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>5</v>
       </c>
@@ -3133,7 +3147,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
@@ -3143,7 +3157,7 @@
       <c r="I105" s="79"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -3158,7 +3172,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -3173,7 +3187,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
@@ -3188,7 +3202,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3203,7 +3217,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3232,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +3246,7 @@
       <c r="I111" s="81"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -3270,10 +3284,10 @@
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -3288,7 +3302,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +3331,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
@@ -3346,7 +3360,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3389,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -3404,7 +3418,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
@@ -3432,7 +3446,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -3470,7 +3484,7 @@
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
@@ -3480,7 +3494,7 @@
       <c r="I121" s="79"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -3495,7 +3509,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3538,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
@@ -3553,7 +3567,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -3582,7 +3596,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3625,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
@@ -3639,7 +3653,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -3677,7 +3691,7 @@
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
@@ -3687,7 +3701,7 @@
       <c r="I129" s="79"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -3702,7 +3716,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3745,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
@@ -3760,7 +3774,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -3789,7 +3803,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -3818,7 +3832,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -3846,7 +3860,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3898,7 @@
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
@@ -3894,7 +3908,7 @@
       <c r="I137" s="79"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -3909,7 +3923,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3952,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -3967,7 +3981,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -3996,7 +4010,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4025,7 +4039,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -4053,7 +4067,7 @@
       </c>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>5</v>
       </c>
@@ -4091,7 +4105,7 @@
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="20"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
@@ -4103,7 +4117,7 @@
       <c r="J145" s="21"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4118,7 +4132,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
@@ -4147,7 +4161,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
@@ -4176,7 +4190,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -4205,7 +4219,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
@@ -4234,7 +4248,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4276,7 @@
       </c>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -4300,7 +4314,7 @@
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -4310,7 +4324,7 @@
       <c r="I153" s="79"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -4325,7 +4339,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -4354,7 +4368,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
@@ -4383,7 +4397,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -4412,7 +4426,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>3</v>
       </c>
@@ -4441,7 +4455,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>4</v>
       </c>
@@ -4469,7 +4483,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -4507,7 +4521,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
@@ -4517,7 +4531,7 @@
       <c r="I161" s="79"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -4532,7 +4546,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -4561,7 +4575,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4604,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -4619,7 +4633,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>3</v>
       </c>
@@ -4648,7 +4662,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>4</v>
       </c>
@@ -4676,7 +4690,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -4714,7 +4728,7 @@
       <c r="J168" s="27"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
@@ -4724,7 +4738,7 @@
       <c r="I169" s="79"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>10</v>
       </c>
@@ -4739,7 +4753,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +4782,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -4797,7 +4811,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +4840,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4869,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>4</v>
       </c>
@@ -4883,7 +4897,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>

--- a/Algemeen/Presentie GL-G5.xlsx
+++ b/Algemeen/Presentie GL-G5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Important and Stuff V1\School\Year 2\Project-Ninja-Outbreak\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>Maandag</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Rief was ziek</t>
+  </si>
+  <si>
+    <t>Rief doktor afspraak.</t>
   </si>
 </sst>
 </file>
@@ -1068,22 +1071,22 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="84" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1136,21 +1139,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.57894736842105265</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1184,17 +1187,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.84210526315789469</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1226,17 +1229,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.84210526315789469</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1268,17 +1271,17 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.68421052631578949</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1310,17 +1313,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.84210526315789469</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1352,17 +1355,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.84210526315789469</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1401,17 +1404,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.84210526315789469</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -1421,7 +1424,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1440,10 +1443,10 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.4736842105263159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.3846153846153841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1514,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1549,7 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
@@ -1581,33 +1584,49 @@
       </c>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="65">
         <v>4</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="63"/>
+      <c r="C15" s="82">
+        <v>0</v>
+      </c>
+      <c r="D15" s="80">
+        <v>4</v>
+      </c>
+      <c r="E15" s="80">
+        <v>4</v>
+      </c>
+      <c r="F15" s="80">
+        <v>4</v>
+      </c>
+      <c r="G15" s="80">
+        <v>4</v>
+      </c>
+      <c r="H15" s="80">
+        <v>4</v>
+      </c>
+      <c r="I15" s="81">
+        <v>4</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="91" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="95"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="77">
         <f t="shared" ref="C16:G16" si="1">SUM(C11:C15)</f>
@@ -1615,27 +1634,27 @@
       </c>
       <c r="D16" s="77">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" s="77">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16" s="77">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="77">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H16" s="77">
         <f>SUM(H11:H15)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I16" s="77">
         <f>SUM(I11:I15)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J16" s="64"/>
       <c r="K16" s="10"/>
@@ -1644,7 +1663,7 @@
       </c>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -1655,7 +1674,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1670,41 +1689,77 @@
       <c r="J18" s="62"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="34">
+        <v>4</v>
+      </c>
+      <c r="D19" s="35">
+        <v>4</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4</v>
+      </c>
+      <c r="F19" s="35">
+        <v>4</v>
+      </c>
+      <c r="G19" s="35">
+        <v>4</v>
+      </c>
+      <c r="H19" s="35">
+        <v>4</v>
+      </c>
+      <c r="I19" s="36">
+        <v>4</v>
+      </c>
       <c r="J19" s="63"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="63"/>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4</v>
+      </c>
+      <c r="D20" s="35">
+        <v>4</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>4</v>
+      </c>
+      <c r="H20" s="35">
+        <v>4</v>
+      </c>
+      <c r="I20" s="36">
+        <v>4</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>45</v>
+      </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
       <c r="C21" s="34"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -1715,11 +1770,13 @@
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="10">
+        <v>4</v>
+      </c>
       <c r="C22" s="34"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -1730,11 +1787,13 @@
       <c r="J22" s="63"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
       <c r="C23" s="82"/>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
@@ -1745,45 +1804,45 @@
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C24" s="76">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D24" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E24" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="77">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24" s="77">
         <f>SUM(H19:H23)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="77">
         <f>SUM(I19:I23)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -1792,7 +1851,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1807,7 +1866,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1881,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1896,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1911,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1926,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1941,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1979,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -1929,7 +1988,7 @@
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +2003,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +2018,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +2033,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -1989,7 +2048,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -2004,7 +2063,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2019,7 +2078,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2056,10 +2115,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2074,7 +2133,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2148,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2163,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2178,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2193,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2208,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2245,7 @@
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
@@ -2196,7 +2255,7 @@
       <c r="I49" s="79"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2270,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2285,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2300,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2315,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2271,7 +2330,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2345,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2382,7 @@
       </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -2333,7 +2392,7 @@
       <c r="I57" s="79"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -2348,7 +2407,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2422,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
@@ -2378,7 +2437,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2452,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2467,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2482,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2519,7 @@
       </c>
       <c r="J64" s="31"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="10"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
@@ -2472,7 +2531,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2487,7 +2546,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2561,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2517,7 +2576,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2591,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2606,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2621,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +2658,7 @@
       </c>
       <c r="J72" s="31"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
@@ -2609,7 +2668,7 @@
       <c r="I73" s="79"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -2624,7 +2683,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2698,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2713,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -2669,7 +2728,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2743,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2758,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2795,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -2746,7 +2805,7 @@
       <c r="I81" s="79"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -2761,7 +2820,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +2835,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -2791,7 +2850,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -2806,7 +2865,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
@@ -2821,7 +2880,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2895,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
@@ -2873,7 +2932,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
@@ -2883,7 +2942,7 @@
       <c r="I89" s="79"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -2898,7 +2957,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2972,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
@@ -2928,7 +2987,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +3002,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +3017,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +3032,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3069,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
@@ -3020,7 +3079,7 @@
       <c r="I97" s="79"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>37</v>
       </c>
@@ -3035,7 +3094,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3109,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3124,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3139,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3095,7 +3154,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3169,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>5</v>
       </c>
@@ -3147,7 +3206,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
@@ -3157,7 +3216,7 @@
       <c r="I105" s="79"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -3172,7 +3231,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3246,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
@@ -3202,7 +3261,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3217,7 +3276,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3232,7 +3291,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3305,7 @@
       <c r="I111" s="81"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -3284,10 +3343,10 @@
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -3302,7 +3361,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3390,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
@@ -3360,7 +3419,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -3389,7 +3448,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -3418,7 +3477,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
@@ -3446,7 +3505,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -3484,7 +3543,7 @@
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
@@ -3494,7 +3553,7 @@
       <c r="I121" s="79"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -3509,7 +3568,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3597,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
@@ -3567,7 +3626,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -3596,7 +3655,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
@@ -3625,7 +3684,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
@@ -3653,7 +3712,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +3750,7 @@
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
@@ -3701,7 +3760,7 @@
       <c r="I129" s="79"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -3716,7 +3775,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3804,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3833,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -3803,7 +3862,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3891,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -3860,7 +3919,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -3898,7 +3957,7 @@
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
@@ -3908,7 +3967,7 @@
       <c r="I137" s="79"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -3923,7 +3982,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
@@ -3952,7 +4011,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -3981,7 +4040,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -4010,7 +4069,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4039,7 +4098,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -4067,7 +4126,7 @@
       </c>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>5</v>
       </c>
@@ -4105,7 +4164,7 @@
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="20"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
@@ -4117,7 +4176,7 @@
       <c r="J145" s="21"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4132,7 +4191,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
@@ -4161,7 +4220,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
@@ -4190,7 +4249,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -4219,7 +4278,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4307,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -4276,7 +4335,7 @@
       </c>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -4314,7 +4373,7 @@
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -4324,7 +4383,7 @@
       <c r="I153" s="79"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -4339,7 +4398,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4427,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
@@ -4397,7 +4456,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -4426,7 +4485,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>3</v>
       </c>
@@ -4455,7 +4514,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>4</v>
       </c>
@@ -4483,7 +4542,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -4521,7 +4580,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
@@ -4531,7 +4590,7 @@
       <c r="I161" s="79"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -4546,7 +4605,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4634,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -4604,7 +4663,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -4633,7 +4692,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>3</v>
       </c>
@@ -4662,7 +4721,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>4</v>
       </c>
@@ -4690,7 +4749,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -4728,7 +4787,7 @@
       <c r="J168" s="27"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
@@ -4738,7 +4797,7 @@
       <c r="I169" s="79"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +4812,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
@@ -4782,7 +4841,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -4811,7 +4870,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -4840,7 +4899,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>3</v>
       </c>
@@ -4869,7 +4928,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>4</v>
       </c>
@@ -4897,7 +4956,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>
